--- a/Enrichment Sample.xlsx
+++ b/Enrichment Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B33149-1CA3-498B-8D96-B42C7681E839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F729EF4E-9FDD-4CAC-A0BE-CF2C017992B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="552" windowWidth="15996" windowHeight="11784" xr2:uid="{B438D5A4-9F1B-4177-A6D9-0F1039A890FE}"/>
+    <workbookView xWindow="35460" yWindow="3360" windowWidth="21960" windowHeight="14850" xr2:uid="{B438D5A4-9F1B-4177-A6D9-0F1039A890FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>MARKET_SECTOR_DES</t>
   </si>
@@ -89,10 +89,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>LQA_ID</t>
-  </si>
-  <si>
-    <t>LQA_ID_TYPE</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID_TYPE</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -447,16 +450,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -482,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -505,10 +508,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -534,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
